--- a/trunk/GCS/war/datadocs/templateImplementacion.xlsx
+++ b/trunk/GCS/war/datadocs/templateImplementacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Implementaciones por estado" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,16 @@
     <sheet name="Imp por tipo producto" sheetId="3" r:id="rId3"/>
     <sheet name="Entrada peticiones" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Paises">'Imp por tipo producto'!$D$20:$D$30</definedName>
+    <definedName name="valores">'Imp por tipo producto'!$E$20:$E$30</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Servicios solicitados</t>
   </si>
@@ -173,6 +177,9 @@
   </si>
   <si>
     <t>PRUC</t>
+  </si>
+  <si>
+    <t>TOTAL 2015</t>
   </si>
 </sst>
 </file>
@@ -456,36 +463,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,20 +496,71 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
@@ -530,34 +574,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,6 +590,136 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES_tradnl"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Implementaciones por país</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Imp por tipo producto'!$D$20:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>ARG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PER</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VEN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CHI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MEX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ESP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FRA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ITA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Imp por tipo producto'!$E$20:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,267 +1009,430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="20.25" customHeight="1">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="30" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="2:14" ht="20.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:14" ht="20.25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:14" ht="20.25" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:14" ht="20.25" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="C15" s="15"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="5"/>
-      <c r="I15" s="11"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="J16" s="6" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="J16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="7"/>
+      <c r="K16" s="34" t="e">
+        <f>C16/$C$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="35" t="e">
+        <f>D16/$D$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="36" t="e">
+        <f>E16/$E$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="34" t="e">
+        <f>F16/$F$27</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="J17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="J17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="K17" s="34" t="e">
+        <f>C17/$C$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="35" t="e">
+        <f t="shared" ref="L17:L25" si="0">D17/$D$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="36" t="e">
+        <f t="shared" ref="M17:M26" si="1">E17/$E$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="34" t="e">
+        <f t="shared" ref="N17:N26" si="2">F17/$F$27</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="J18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="J18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="K18" s="34" t="e">
+        <f t="shared" ref="K18:K26" si="3">C18/$C$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="J19" s="6" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="J19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="K19" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="J20" s="8" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="J20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="K20" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="J21" s="8" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="J21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="K21" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="J22" s="8" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="J22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="K22" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="J23" s="6" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="J23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="K23" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="J24" s="8" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="J24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="K24" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="J25" s="6" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="J25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="K25" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="J26" s="6" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="J26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="K26" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="35" t="e">
+        <f>D26/$D$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="16"/>
-      <c r="J27" s="17" t="s">
+      <c r="C27" s="10">
+        <f>SUM(C16:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:E27" si="4">SUM(D16:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f>SUM(F16:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="16"/>
+      <c r="K27" s="10">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" ref="L27:M27" si="5">D27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <f>F27</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="E28" s="19"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="I29" s="11"/>
+      <c r="I29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1145,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:AE36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,637 +1471,820 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:31">
-      <c r="N4" s="26"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="40"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="38" t="s">
         <v>45</v>
       </c>
       <c r="U4" s="40"/>
       <c r="V4" s="41"/>
       <c r="W4" s="41"/>
       <c r="X4" s="41"/>
-      <c r="Y4" s="42" t="s">
+      <c r="Y4" s="38" t="s">
         <v>45</v>
       </c>
       <c r="AA4" s="40"/>
       <c r="AB4" s="41"/>
       <c r="AC4" s="41"/>
       <c r="AD4" s="41"/>
-      <c r="AE4" s="42" t="s">
+      <c r="AE4" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:31">
-      <c r="N5" s="26"/>
-      <c r="O5" s="44" t="s">
+      <c r="N5" s="16"/>
+      <c r="O5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="Q5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="43"/>
-      <c r="U5" s="44" t="s">
+      <c r="S5" s="39"/>
+      <c r="U5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="V5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="44" t="s">
+      <c r="W5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="45" t="s">
+      <c r="X5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="43"/>
-      <c r="AA5" s="44" t="s">
+      <c r="Y5" s="39"/>
+      <c r="AA5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" s="44" t="s">
+      <c r="AB5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AC5" s="44" t="s">
+      <c r="AC5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="45" t="s">
+      <c r="AD5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AE5" s="43"/>
+      <c r="AE5" s="39"/>
     </row>
     <row r="6" spans="2:31">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="N6" s="27" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="N6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="44"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="44"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="44"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25">
+        <f>SUM(O6:R6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="25">
+        <f>SUM(U6:X6)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="25">
+        <f>SUM(AA6:AD6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:31">
-      <c r="D7" s="21"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="44"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="44"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="44"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25">
+        <f t="shared" ref="S7:S15" si="0">SUM(O7:R7)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="25">
+        <f t="shared" ref="Y7:Y16" si="1">SUM(U7:X7)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="25">
+        <f t="shared" ref="AE7:AE16" si="2">SUM(AA7:AD7)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:31">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="N8" s="27" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="N8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="44"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="44"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="44"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:31">
-      <c r="B9" s="49"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="N9" s="27" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="N9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="44"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="44"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="44"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:31">
-      <c r="B10" s="49"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="J10" s="20"/>
-      <c r="N10" s="27" t="s">
+      <c r="D10" s="45">
+        <f>SUM(E10:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="J10" s="12"/>
+      <c r="N10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="44"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="44"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="44"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:31">
-      <c r="B11" s="49"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="J11" s="20"/>
-      <c r="N11" s="27" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="J11" s="12"/>
+      <c r="N11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="44"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="44"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="44"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:31">
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="N12" s="27" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="N12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="44"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="44"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="44"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:31">
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="44"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="44"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="44"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:31">
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="44"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="44"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="44"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:31">
-      <c r="N15" s="27" t="s">
+      <c r="N15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="44"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="44"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="44"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:31">
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="N16" s="27" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="N16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="44"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="44"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="44"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25">
+        <f>SUM(O16:R16)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="3:31">
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="N17" s="27" t="s">
+      <c r="G17" s="48"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="N17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="34"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="34"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="34"/>
+      <c r="O17" s="25">
+        <f>SUM(O6:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" ref="P17:R17" si="3">SUM(P6:P16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="23">
+        <f>SUM(O17:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="25">
+        <f>SUM(U6:U16)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="25">
+        <f t="shared" ref="V17:X17" si="4">SUM(V6:V16)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="23">
+        <f>SUM(U17:X17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="25">
+        <f>SUM(AA6:AA16)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="25">
+        <f t="shared" ref="AB17:AD17" si="5">SUM(AB6:AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="23">
+        <f>SUM(AA17:AD17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:31">
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="3:31" ht="30">
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="3:31">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="3:31">
-      <c r="C20" s="29"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="37" t="e">
+        <f>E20/$E$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="3:31">
-      <c r="C21" s="29"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="37" t="e">
+        <f t="shared" ref="H21:H30" si="6">E21/$E$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="3:31">
-      <c r="C22" s="29"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="3:31">
-      <c r="C23" s="29"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="3:31">
-      <c r="C24" s="29"/>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="3:31">
-      <c r="C25" s="29"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="3:31">
-      <c r="C26" s="29"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="3:31">
-      <c r="C27" s="29"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="3:31">
-      <c r="C28" s="29"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="3:31">
-      <c r="C29" s="29"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="3:31">
-      <c r="C30" s="29"/>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="3:31">
-      <c r="C31" s="29"/>
-      <c r="D31" s="28" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="E31" s="48">
+        <f>SUM(valores)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="3:31">
-      <c r="C32" s="29"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1805,14 +2301,15 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AE5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1820,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1830,70 +2327,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
+        <f>SUM(C4:E4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
+        <f t="shared" ref="F5:F7" si="0">SUM(C5:E5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="26"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="28">
+        <f>SUM(C4:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="28">
+        <f t="shared" ref="D8:E8" si="1">SUM(D4:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <f>SUM(C8:E8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/GCS/war/datadocs/templateImplementacion.xlsx
+++ b/trunk/GCS/war/datadocs/templateImplementacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Implementaciones por estado" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>Servicios solicitados</t>
   </si>
@@ -180,6 +180,45 @@
   </si>
   <si>
     <t>TOTAL 2015</t>
+  </si>
+  <si>
+    <t>ENE</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DIC</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -463,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -544,6 +583,33 @@
     <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
@@ -556,33 +622,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,6 +633,273 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES_tradnl"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3169072615922999E-2"/>
+          <c:y val="0.12025481189851268"/>
+          <c:w val="0.78931846019247598"/>
+          <c:h val="0.68969123651210262"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Evol y estim implement'!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Evol y estim implement'!$P$8:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ENE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DIC</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Evol y estim implement'!$Q$8:$Q$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Evol y estim implement'!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Evol y estim implement'!$P$8:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ENE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DIC</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Evol y estim implement'!$R$8:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Evol y estim implement'!$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Evol y estim implement'!$P$8:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ENE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DIC</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Evol y estim implement'!$S$8:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75725056"/>
+        <c:axId val="75726848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75725056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75726848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75726848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75725056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES_tradnl"/>
   <c:chart>
@@ -681,13 +988,48 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1442,15 +1784,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="P7:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="16:19">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+    </row>
+    <row r="8" spans="16:19">
+      <c r="P8" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="16:19">
+      <c r="P9" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="16:19">
+      <c r="P10" s="51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="16:19">
+      <c r="P11" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="16:19">
+      <c r="P12" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="16:19">
+      <c r="P13" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="16:19">
+      <c r="P14" s="51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="16:19">
+      <c r="P15" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="16:19">
+      <c r="P16" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="16:16">
+      <c r="P17" s="51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="16:16">
+      <c r="P18" s="51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="16:16">
+      <c r="P19" s="51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="16:16">
+      <c r="P20" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1459,7 +1873,7 @@
   <dimension ref="B4:AE36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1472,25 +1886,25 @@
   <sheetData>
     <row r="4" spans="2:31">
       <c r="N4" s="16"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="38" t="s">
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="40"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="38" t="s">
+      <c r="U4" s="49"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="38" t="s">
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="47" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1508,7 +1922,7 @@
       <c r="R5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="39"/>
+      <c r="S5" s="48"/>
       <c r="U5" s="25" t="s">
         <v>42</v>
       </c>
@@ -1521,7 +1935,7 @@
       <c r="X5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="39"/>
+      <c r="Y5" s="48"/>
       <c r="AA5" s="25" t="s">
         <v>42</v>
       </c>
@@ -1534,18 +1948,18 @@
       <c r="AD5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AE5" s="39"/>
+      <c r="AE5" s="48"/>
     </row>
     <row r="6" spans="2:31">
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="N6" s="17" t="s">
         <v>27</v>
       </c>
@@ -1575,7 +1989,7 @@
       </c>
     </row>
     <row r="7" spans="2:31">
-      <c r="D7" s="42"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
@@ -1617,7 +2031,7 @@
       </c>
     </row>
     <row r="8" spans="2:31">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1658,7 +2072,7 @@
       </c>
     </row>
     <row r="9" spans="2:31">
-      <c r="B9" s="50"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1697,18 +2111,18 @@
       </c>
     </row>
     <row r="10" spans="2:31">
-      <c r="B10" s="50"/>
-      <c r="C10" s="44" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <f>SUM(E10:H11)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
       <c r="J10" s="12"/>
       <c r="N10" s="17" t="s">
         <v>31</v>
@@ -1739,13 +2153,13 @@
       </c>
     </row>
     <row r="11" spans="2:31">
-      <c r="B11" s="50"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
       <c r="J11" s="12"/>
       <c r="N11" s="17" t="s">
         <v>32</v>
@@ -1936,13 +2350,13 @@
     <row r="17" spans="3:31">
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="16"/>
@@ -2014,9 +2428,9 @@
     <row r="18" spans="3:31">
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="16"/>
@@ -2025,7 +2439,7 @@
     <row r="19" spans="3:31">
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="48"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="20" t="s">
         <v>17</v>
       </c>
@@ -2217,10 +2631,10 @@
     </row>
     <row r="31" spans="3:31">
       <c r="C31" s="19"/>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="38">
         <f>SUM(valores)</f>
         <v>0</v>
       </c>
@@ -2233,8 +2647,8 @@
     </row>
     <row r="32" spans="3:31">
       <c r="C32" s="19"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="48"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="19"/>
@@ -2288,11 +2702,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="C10:C11"/>
@@ -2301,12 +2716,11 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2317,7 +2731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
